--- a/Project/LUMA project.xlsx
+++ b/Project/LUMA project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github\Keval_Testing\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="(HLR)LUMA" sheetId="1" r:id="rId1"/>
     <sheet name="TESTCASE(LUMA)" sheetId="2" r:id="rId2"/>
+    <sheet name="Defect report" sheetId="3" r:id="rId3"/>
+    <sheet name="test scinariyos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="304">
   <si>
     <t>Function ID</t>
   </si>
@@ -1275,14 +1277,68 @@
 5)click on men  menu   </t>
   </si>
   <si>
-    <t>ss</t>
+    <t>Defect Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defect Summary </t>
+  </si>
+  <si>
+    <t>Reproduced step</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Defect Types</t>
+  </si>
+  <si>
+    <t>Defect severity</t>
+  </si>
+  <si>
+    <t>Defect priority</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functionality,user interface </t>
+  </si>
+  <si>
+    <t>Keval patel</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>HIgh</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,8 +1412,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1376,8 +1438,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1435,12 +1503,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,6 +1676,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2540,7 +2648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>121</v>
       </c>
@@ -3389,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,8 +3510,8 @@
     <col min="5" max="5" width="34.140625" customWidth="1"/>
     <col min="6" max="6" width="43.140625" customWidth="1"/>
     <col min="7" max="7" width="44.140625" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3517,7 +3625,7 @@
         <v>135</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>285</v>
+        <v>123</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>124</v>
@@ -5234,18 +5342,18 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10" ht="311.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="28">
         <v>63</v>
       </c>
       <c r="C64" s="51">
         <v>115</v>
       </c>
-      <c r="D64" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="51" t="s">
-        <v>120</v>
+      <c r="D64" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>248</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>259</v>
@@ -5263,20 +5371,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="263.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10" ht="339.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
         <v>64</v>
       </c>
       <c r="C65" s="1">
         <v>116</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="F65" s="33" t="s">
+      <c r="D65" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F65" s="68" t="s">
         <v>261</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -5321,7 +5429,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="283.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10" ht="348" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
         <v>66</v>
       </c>
@@ -5350,7 +5458,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="302.25" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10" ht="345" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="28">
         <v>67</v>
       </c>
@@ -5408,7 +5516,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10" ht="317.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -5437,7 +5545,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="255.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10" ht="324" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="28">
         <v>70</v>
       </c>
@@ -5495,7 +5603,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10" ht="264" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1">
         <v>72</v>
       </c>
@@ -5524,7 +5632,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="222" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10" ht="258" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1">
         <v>73</v>
       </c>
@@ -5553,7 +5661,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="2:10" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10" ht="257.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
         <v>74</v>
       </c>
@@ -5582,7 +5690,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="2:10" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1">
         <v>75</v>
       </c>
@@ -5611,7 +5719,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="2:10" ht="186" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10" ht="255.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1">
         <v>76</v>
       </c>
@@ -5710,4 +5818,2161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="93" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L2" s="70"/>
+      <c r="M2" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="70"/>
+      <c r="M3" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28">
+        <v>6</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="70"/>
+      <c r="M4" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28">
+        <v>7</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="70"/>
+      <c r="M5" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28">
+        <v>8</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="70"/>
+      <c r="M6" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28">
+        <v>9</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="70"/>
+      <c r="M7" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28">
+        <v>10</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" s="70"/>
+      <c r="M8" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28">
+        <v>11</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="70"/>
+      <c r="M9" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28">
+        <v>12</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L10" s="70"/>
+      <c r="M10" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28">
+        <v>13</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="65">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" s="70"/>
+      <c r="M12" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="372" x14ac:dyDescent="0.35">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28">
+        <v>42</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="70"/>
+      <c r="M13" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="279" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28">
+        <v>53</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="70"/>
+      <c r="M14" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="348.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28">
+        <v>55</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" s="70"/>
+      <c r="M15" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28">
+        <v>56</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="70"/>
+      <c r="M16" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="279" x14ac:dyDescent="0.35">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28">
+        <v>63</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L17" s="70"/>
+      <c r="M17" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="348.75" x14ac:dyDescent="0.35">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28">
+        <v>65</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L18" s="70"/>
+      <c r="M18" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="302.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28">
+        <v>70</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L19" s="70"/>
+      <c r="M19" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="162.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>14</v>
+      </c>
+      <c r="B5" s="21">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="186" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>16</v>
+      </c>
+      <c r="B6" s="36">
+        <v>6</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>17</v>
+      </c>
+      <c r="B7" s="36">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>18</v>
+      </c>
+      <c r="B8" s="36">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="302.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
+        <v>19</v>
+      </c>
+      <c r="B9" s="36">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
+        <v>20</v>
+      </c>
+      <c r="B10" s="36">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="372" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>21</v>
+      </c>
+      <c r="B11" s="36">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>22</v>
+      </c>
+      <c r="B12" s="36">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>23</v>
+      </c>
+      <c r="B13" s="36">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
+        <v>24</v>
+      </c>
+      <c r="B14" s="36">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>25</v>
+      </c>
+      <c r="B15" s="36">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="209.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>26</v>
+      </c>
+      <c r="B16" s="36">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>27</v>
+      </c>
+      <c r="B17" s="36">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
+        <v>28</v>
+      </c>
+      <c r="B18" s="36">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>29</v>
+      </c>
+      <c r="B19" s="36">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="279" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>32</v>
+      </c>
+      <c r="B22" s="53">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="209.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>33</v>
+      </c>
+      <c r="B23" s="53">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>34</v>
+      </c>
+      <c r="B24" s="53">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1">
+        <v>67</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="302.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1">
+        <v>69</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="372" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="302.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43</v>
+      </c>
+      <c r="B32" s="21">
+        <v>73</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44</v>
+      </c>
+      <c r="B33" s="21">
+        <v>74</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45</v>
+      </c>
+      <c r="B34" s="21">
+        <v>75</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="372" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>46</v>
+      </c>
+      <c r="B35" s="21">
+        <v>76</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>47</v>
+      </c>
+      <c r="B36" s="21">
+        <v>77</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="302.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="348.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="372" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>51</v>
+      </c>
+      <c r="B40" s="20">
+        <v>90</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="348.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1">
+        <v>93</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>58</v>
+      </c>
+      <c r="B44" s="1">
+        <v>110</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="279" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>60</v>
+      </c>
+      <c r="B46" s="27">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>61</v>
+      </c>
+      <c r="B47" s="1">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>62</v>
+      </c>
+      <c r="B48" s="1">
+        <v>114</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="348.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1">
+        <v>116</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>66</v>
+      </c>
+      <c r="B50" s="1">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>69</v>
+      </c>
+      <c r="B52" s="20">
+        <v>121</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>123</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>72</v>
+      </c>
+      <c r="B54" s="20">
+        <v>124</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>73</v>
+      </c>
+      <c r="B55" s="20">
+        <v>125</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G55" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>74</v>
+      </c>
+      <c r="B56" s="20">
+        <v>135</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>136</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1">
+        <v>137</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1">
+        <v>138</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project/LUMA project.xlsx
+++ b/Project/LUMA project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="(HLR)LUMA" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="304">
   <si>
     <t>Function ID</t>
   </si>
@@ -1445,7 +1445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1503,23 +1503,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1688,9 +1677,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2197,7 +2183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>42</v>
       </c>
@@ -2648,7 +2634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>121</v>
       </c>
@@ -3497,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A69"/>
+    <sheetView topLeftCell="A56" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5140,32 +5126,32 @@
       </c>
     </row>
     <row r="57" spans="2:10" ht="372" x14ac:dyDescent="0.35">
-      <c r="B57" s="28">
+      <c r="B57" s="21">
         <v>56</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="52">
         <v>95</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="G57" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="29" t="s">
+      <c r="G57" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="I57" s="50" t="s">
+      <c r="I57" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="J57" s="49" t="s">
-        <v>139</v>
+      <c r="J57" s="48" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="409.5" x14ac:dyDescent="0.35">
@@ -5378,13 +5364,13 @@
       <c r="C65" s="1">
         <v>116</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="E65" s="69" t="s">
+      <c r="E65" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="F65" s="68" t="s">
+      <c r="F65" s="67" t="s">
         <v>261</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -5822,10 +5808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,8 +5825,8 @@
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="10" max="10" width="34.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5919,7 +5905,7 @@
       <c r="K2" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L2" s="70"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="30" t="s">
         <v>295</v>
       </c>
@@ -5958,7 +5944,7 @@
       <c r="K3" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L3" s="70"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="30" t="s">
         <v>295</v>
       </c>
@@ -5997,7 +5983,7 @@
       <c r="K4" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L4" s="70"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="30" t="s">
         <v>295</v>
       </c>
@@ -6036,7 +6022,7 @@
       <c r="K5" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="69"/>
       <c r="M5" s="30" t="s">
         <v>295</v>
       </c>
@@ -6075,7 +6061,7 @@
       <c r="K6" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L6" s="70"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="30" t="s">
         <v>295</v>
       </c>
@@ -6114,7 +6100,7 @@
       <c r="K7" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="70"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="30" t="s">
         <v>295</v>
       </c>
@@ -6153,7 +6139,7 @@
       <c r="K8" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L8" s="70"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="30" t="s">
         <v>295</v>
       </c>
@@ -6192,7 +6178,7 @@
       <c r="K9" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L9" s="70"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="30" t="s">
         <v>295</v>
       </c>
@@ -6231,7 +6217,7 @@
       <c r="K10" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L10" s="70"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="30" t="s">
         <v>295</v>
       </c>
@@ -6270,62 +6256,62 @@
       <c r="K11" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L11" s="70"/>
+      <c r="L11" s="69"/>
       <c r="M11" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="372" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="65">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
+      <c r="B12" s="28">
+        <v>42</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>134</v>
+        <v>221</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>296</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>169</v>
+        <v>300</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L12" s="70"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="372" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="279" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>12</v>
       </c>
       <c r="B13" s="28">
-        <v>42</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>121</v>
@@ -6339,32 +6325,32 @@
       <c r="H13" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="41" t="s">
-        <v>174</v>
+      <c r="I13" s="29" t="s">
+        <v>243</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L13" s="70"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="279" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="348.75" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>13</v>
       </c>
       <c r="B14" s="28">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>121</v>
@@ -6379,31 +6365,31 @@
         <v>300</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L14" s="70"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="348.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="279" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>14</v>
       </c>
       <c r="B15" s="28">
-        <v>55</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>247</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>121</v>
@@ -6415,34 +6401,34 @@
         <v>299</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="J15" s="50" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="K15" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L15" s="70"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="350.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="348.75" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>15</v>
       </c>
       <c r="B16" s="28">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>121</v>
@@ -6451,37 +6437,37 @@
         <v>296</v>
       </c>
       <c r="G16" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>303</v>
-      </c>
       <c r="I16" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>251</v>
+        <v>263</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>264</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L16" s="70"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="279" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="302.25" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>16</v>
       </c>
       <c r="B17" s="28">
-        <v>63</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>247</v>
+        <v>70</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>92</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>121</v>
@@ -6490,100 +6476,22 @@
         <v>296</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>260</v>
+        <v>300</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L17" s="70"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="348.75" x14ac:dyDescent="0.35">
-      <c r="A18" s="30">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28">
-        <v>65</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="L18" s="70"/>
-      <c r="M18" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="302.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="30">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28">
-        <v>70</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="30" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7530,7 +7438,7 @@
       <c r="F40" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="66" t="s">
+      <c r="G40" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7553,7 +7461,7 @@
       <c r="F41" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="G41" s="67" t="s">
+      <c r="G41" s="66" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7576,7 +7484,7 @@
       <c r="F42" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="67" t="s">
+      <c r="G42" s="66" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7599,7 +7507,7 @@
       <c r="F43" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="G43" s="67" t="s">
+      <c r="G43" s="66" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7622,7 +7530,7 @@
       <c r="F44" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G44" s="66" t="s">
+      <c r="G44" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7645,7 +7553,7 @@
       <c r="F45" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7668,7 +7576,7 @@
       <c r="F46" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="67" t="s">
+      <c r="G46" s="66" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7691,7 +7599,7 @@
       <c r="F47" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G47" s="66" t="s">
+      <c r="G47" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7714,7 +7622,7 @@
       <c r="F48" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G48" s="66" t="s">
+      <c r="G48" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7737,7 +7645,7 @@
       <c r="F49" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="66" t="s">
+      <c r="G49" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7760,7 +7668,7 @@
       <c r="F50" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="66" t="s">
+      <c r="G50" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7783,7 +7691,7 @@
       <c r="F51" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G51" s="66" t="s">
+      <c r="G51" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7806,7 +7714,7 @@
       <c r="F52" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="G52" s="66" t="s">
+      <c r="G52" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7829,7 +7737,7 @@
       <c r="F53" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="G53" s="66" t="s">
+      <c r="G53" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7852,7 +7760,7 @@
       <c r="F54" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G54" s="66" t="s">
+      <c r="G54" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7875,7 +7783,7 @@
       <c r="F55" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="G55" s="66" t="s">
+      <c r="G55" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7898,7 +7806,7 @@
       <c r="F56" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7921,7 +7829,7 @@
       <c r="F57" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="G57" s="66" t="s">
+      <c r="G57" s="65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7944,7 +7852,7 @@
       <c r="F58" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="66" t="s">
+      <c r="G58" s="65" t="s">
         <v>123</v>
       </c>
     </row>
